--- a/main/Cases/Example3_cost.xlsx
+++ b/main/Cases/Example3_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi Costa\Documents\agistin\main\Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb8ea44fc11ff6bc/Documentos/Universitat/CITCEA/agistin/main/Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C51509-DF12-4F05-9CCF-6ABFA98CB6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E3C51509-DF12-4F05-9CCF-6ABFA98CB6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6722573F-A3FA-4A1D-B4D5-1E5301D4DB10}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="10" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,42 +426,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDBFD1F-93C1-4DFD-8CBE-DA36DEB8F281}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -475,45 +475,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB1DA86-E473-4447-9EDD-C35A3EE02889}">
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89A51B1-8B3E-424C-A847-DA820C94EAD6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89A51B1-8B3E-424C-A847-DA820C94EAD6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -541,12 +546,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -567,12 +572,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -590,12 +595,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -613,17 +618,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
     </row>
   </sheetData>
@@ -639,17 +644,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -667,17 +672,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -695,12 +700,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -718,12 +723,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>

--- a/main/Cases/Example3_cost.xlsx
+++ b/main/Cases/Example3_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb8ea44fc11ff6bc/Documentos/Universitat/CITCEA/agistin/main/Cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\Desktop\CurrentProjects\AGISTIN\GitHub Repositories\Uni-Kassel_Task-3.2\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E3C51509-DF12-4F05-9CCF-6ABFA98CB6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6722573F-A3FA-4A1D-B4D5-1E5301D4DB10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17164B-3108-45AF-9F79-D4BEE6E3ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="10" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="28680" yWindow="-3315" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="9" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,38 +430,38 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -475,21 +475,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB1DA86-E473-4447-9EDD-C35A3EE02889}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -505,18 +505,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89A51B1-8B3E-424C-A847-DA820C94EAD6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -532,7 +532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -546,12 +546,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -572,12 +572,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -595,12 +595,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -618,17 +618,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="9" max="9" width="23.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
     </row>
   </sheetData>
@@ -644,17 +644,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -672,17 +672,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -700,12 +700,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -723,12 +723,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
